--- a/src/assets/excel/template-excel-route.xlsx
+++ b/src/assets/excel/template-excel-route.xlsx
@@ -1,57 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A355F26-3094-43A8-9E95-1B70FED8E6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5350"/>
+    <workbookView xWindow="3990" yWindow="1200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Khách hàng</t>
-  </si>
-  <si>
-    <t>Mã khách hàng</t>
-  </si>
-  <si>
-    <t>Cửa hàng shoppe</t>
-  </si>
-  <si>
-    <t>Cửa hàng vinmart</t>
-  </si>
-  <si>
-    <t>KH0026</t>
-  </si>
-  <si>
-    <t>KH0036</t>
+    <t>MÃ KHÁCH HÀNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -87,9 +71,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,6 +165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -219,6 +217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,80 +409,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="4" customWidth="1"/>
-    <col min="5" max="15" width="16.26953125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="31.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
+    <col min="3" max="13" width="16.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/assets/excel/template-excel-route.xlsx
+++ b/src/assets/excel/template-excel-route.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A355F26-3094-43A8-9E95-1B70FED8E6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22245E-0199-4EC2-95B1-97B7A02F0E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="1200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MÃ KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>TÊN KHÁCH HÀNG</t>
   </si>
 </sst>
 </file>
@@ -414,13 +417,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
     <col min="3" max="13" width="16.25" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.125" style="2"/>
   </cols>
@@ -429,7 +432,9 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
